--- a/database/classified_reaction_types/ketone_alcohol/ketone_alcohol_test.xlsx
+++ b/database/classified_reaction_types/ketone_alcohol/ketone_alcohol_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Family\David\UW_ChemE\2019_Spring\ChemE_547\DarKnight\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Family\David\UW_ChemE\2019_Spring\ChemE_547\DarKnight\database\classified_reaction_types\ketone_alcohol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,12 +62,6 @@
     <t>CCOC(=O)CC(C)O</t>
   </si>
   <si>
-    <t>Cc1cc2cc(C)c1o2</t>
-  </si>
-  <si>
-    <t>Cc1cccc(C)c1O</t>
-  </si>
-  <si>
     <t>CC(C)C(=O)c1ccccc1</t>
   </si>
   <si>
@@ -90,6 +84,12 @@
   </si>
   <si>
     <t>N#Cc1cccc2c1CCC2O</t>
+  </si>
+  <si>
+    <t>CC1CCCC(C)C1=O</t>
+  </si>
+  <si>
+    <t>CC1CCCC(C)C1O</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -484,42 +484,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/database/classified_reaction_types/ketone_alcohol/ketone_alcohol_test.xlsx
+++ b/database/classified_reaction_types/ketone_alcohol/ketone_alcohol_test.xlsx
@@ -32,64 +32,83 @@
     <t>Products</t>
   </si>
   <si>
-    <t>N#CC1CCC(C=O)CC1</t>
-  </si>
-  <si>
-    <t>N#CC1CCC(CO)CC1</t>
-  </si>
-  <si>
     <t>CCC1CC(=O)CCN1CC</t>
   </si>
   <si>
     <t>CCC1CC(O)CCN1CC</t>
-  </si>
-  <si>
-    <t>O=Cc1cccc(C=O)c1</t>
-  </si>
-  <si>
-    <t>O=Cc1cccc(CO)c1</t>
-  </si>
-  <si>
-    <t>CCCOC(=O)C(C)=O</t>
-  </si>
-  <si>
-    <t>CCCOC(=O)C(C)O</t>
-  </si>
-  <si>
-    <t>CCOC(=O)CC(C)=O</t>
-  </si>
-  <si>
-    <t>CCOC(=O)CC(C)O</t>
-  </si>
-  <si>
-    <t>CC(C)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CC(C)C(O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC(C)=O</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC(C)O</t>
-  </si>
-  <si>
-    <t>O=C1CCc2ccccc21</t>
-  </si>
-  <si>
-    <t>OC1CCc2ccccc21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCOC(=O)C(=O)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCOC(=O)C(O)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O=C1C(C)CCCC1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC1CCCC(C1O)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCC(=O)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCC(O)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N#Cc1cccc2c1CCC2=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N#Cc1cccc2c1CCC2O</t>
-  </si>
-  <si>
-    <t>CC1CCCC(C)C1=O</t>
-  </si>
-  <si>
-    <t>CC1CCCC(C)C1O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C(=O)C)CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C(O)C)CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC(C(=O)OC)C(=O)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC(C(=O)OC)C(O)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCn1cc(nc1)C=O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCc1ncn(c1)CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O=C1OCCC2(C1)CCC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC1OCCC2(C1)CCC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O=C1CCc2c(C1)c(N)ccc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC1CCc2c(C1)c(N)ccc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -425,13 +444,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -484,42 +503,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
